--- a/pred_ohlcv/54_21/2020-01-14 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BCD ohlcv.xlsx
@@ -3668,7 +3668,7 @@
         <v>-4246271.851439119</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4244592.883239119</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4244992.883239119</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4240769.05133912</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4240116.277739119</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4240116.277739119</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4260692.142239119</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4260690.442239119</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4256115.136539119</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4255823.770139119</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4252830.696789339</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4225665.041671619</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4219386.028871619</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4193019.370815539</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4202676.16911554</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4188636.162309038</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4186483.845509038</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4186483.845509038</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4186483.845509038</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4183795.874009038</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4175257.939409038</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4184791.581908898</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4184580.096108898</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4196825.893508898</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4196825.893508898</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4195215.893508898</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4193709.524208898</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4194272.124108898</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-4194223.808308898</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-4195091.104108898</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4195082.929408898</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4196075.954708898</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4196380.188108898</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-4195930.188108898</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4203742.635056808</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4203742.635056808</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4208363.684556808</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4207708.138156808</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4210090.702556808</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4173367.801356808</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4188169.168438106</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4189553.236938106</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4192131.328038106</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4190906.250861636</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4191000.578661636</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4191000.578661636</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-4193640.972261637</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-4193790.972261637</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4212689.231048384</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BCD ohlcv.xlsx
@@ -4318,7 +4318,7 @@
         <v>-4260592.142239119</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4260690.442239119</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4260416.771939118</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4258156.282739119</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4258155.082739118</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4259825.512839119</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4262206.612139119</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4262206.612139119</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4256781.978139119</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4256783.278639119</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4258699.585539119</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4257900.98553912</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4256115.136539119</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4254994.204739119</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4253211.251139119</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4252749.154239119</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4255823.770139119</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4257379.423757149</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4253939.745949209</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4252830.696789339</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4253926.27842431</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4253923.642624309</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4253624.642624309</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4253371.642624309</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4250238.302324309</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4250239.962024309</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4250234.962024309</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4250534.962024309</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4254744.675634649</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-4254749.455034649</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4254748.255034649</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4254750.255034649</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4254729.418034649</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4225665.041671619</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4219386.028871619</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4202676.16911554</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4202597.019115539</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4202597.019115539</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4205588.443415539</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4220483.306015539</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4221032.150215539</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-4195091.104108898</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4195082.929408898</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4203742.635056808</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4203742.635056808</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4204475.694556808</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4208363.684556808</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4173367.801356808</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4173364.601356808</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4195698.433438106</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4187588.018438106</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4188169.168438106</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4188879.168438106</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4189553.236938106</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4189551.710138106</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-4189551.710138106</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4192131.328038106</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4191420.365338106</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4190906.250861636</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4191000.578661636</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4191000.578661636</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-4194864.959161636</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-4194895.064961636</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-4194892.714961637</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-4194981.409161637</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-4193833.210661637</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-4193383.210661637</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-4193640.972261637</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-4193790.972261637</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-4193790.972261637</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-4194084.433861637</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-4194082.433861637</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-4194243.933861637</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-4197096.978161637</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-4199569.630261636</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4212689.231048384</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
